--- a/data/动态库存测试用例.xlsx
+++ b/data/动态库存测试用例.xlsx
@@ -921,6 +921,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
  "keyword":"</t>
     </r>
@@ -1817,6 +1822,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
  "advancedQueryCriteria": {
   "partNos": ["${partNo}","sjdfalksdjkl"," ","</t>
@@ -3192,6 +3202,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">{
  "keyword": " </t>
     </r>
@@ -3436,6 +3451,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
  "keyword": "jisjdifasdfadjfjasldjfklasjdfklasjdfklajsdlfjsakldfjlsdjfklasjdlf</t>
     </r>
@@ -5519,6 +5539,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
 "keyword":"~</t>
     </r>
@@ -5602,6 +5627,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
 "keyword":"~</t>
     </r>
@@ -5930,6 +5960,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
  "pagingCondition": {
   "pageIndex": 1,
@@ -7212,6 +7247,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>库存列表</t>
     </r>
     <r>
@@ -7225,6 +7265,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>库存列表</t>
     </r>
     <r>
@@ -7271,8 +7316,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -7322,15 +7367,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7343,8 +7389,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7368,7 +7465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7376,7 +7473,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7391,55 +7496,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7450,23 +7510,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7481,13 +7526,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7505,31 +7664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7541,109 +7694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7656,18 +7707,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7696,24 +7735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7725,6 +7746,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7748,48 +7828,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7801,10 +7840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7813,137 +7852,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7971,9 +8010,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -7992,16 +8028,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -8420,25 +8447,25 @@
       </c>
     </row>
     <row r="2" ht="135" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -8446,25 +8473,25 @@
       </c>
     </row>
     <row r="3" ht="135" spans="1:8">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
@@ -8483,8 +8510,8 @@
   <sheetPr/>
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8570,7 +8597,7 @@
       <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
         <v>32</v>
       </c>
@@ -8594,7 +8621,7 @@
       <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
         <v>36</v>
       </c>
@@ -8618,7 +8645,7 @@
       <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
         <v>40</v>
       </c>
@@ -8642,7 +8669,7 @@
       <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
         <v>44</v>
       </c>
@@ -8666,7 +8693,7 @@
       <c r="F7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
         <v>48</v>
       </c>
@@ -8690,7 +8717,7 @@
       <c r="F8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="8" t="s">
         <v>52</v>
       </c>
@@ -8714,7 +8741,7 @@
       <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
         <v>56</v>
       </c>
@@ -8738,7 +8765,7 @@
       <c r="F10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
         <v>28</v>
       </c>
@@ -8762,7 +8789,7 @@
       <c r="F11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
         <v>28</v>
       </c>
@@ -8786,7 +8813,7 @@
       <c r="F12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="8" t="s">
         <v>66</v>
       </c>
@@ -8810,7 +8837,7 @@
       <c r="F13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
         <v>66</v>
       </c>
@@ -8834,7 +8861,7 @@
       <c r="F14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
         <v>44</v>
       </c>
@@ -8858,7 +8885,7 @@
       <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
         <v>28</v>
       </c>
@@ -8882,7 +8909,7 @@
       <c r="F16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
         <v>44</v>
       </c>
@@ -8906,7 +8933,7 @@
       <c r="F17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
         <v>82</v>
       </c>
@@ -8930,7 +8957,7 @@
       <c r="F18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
         <v>86</v>
       </c>
@@ -8978,7 +9005,7 @@
       <c r="F20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="8" t="s">
         <v>28</v>
       </c>
@@ -9002,7 +9029,7 @@
       <c r="F21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="8" t="s">
         <v>97</v>
       </c>
@@ -9026,7 +9053,7 @@
       <c r="F22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="8" t="s">
         <v>52</v>
       </c>
@@ -9050,7 +9077,7 @@
       <c r="F23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="8" t="s">
         <v>28</v>
       </c>
@@ -9074,7 +9101,7 @@
       <c r="F24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="8" t="s">
         <v>32</v>
       </c>
@@ -9098,7 +9125,7 @@
       <c r="F25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
@@ -9122,7 +9149,7 @@
       <c r="F26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="8" t="s">
         <v>28</v>
       </c>
@@ -9172,7 +9199,7 @@
       <c r="F28" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="8" t="s">
         <v>66</v>
       </c>
@@ -9196,7 +9223,7 @@
       <c r="F29" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="8" t="s">
         <v>123</v>
       </c>
@@ -9220,7 +9247,7 @@
       <c r="F30" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="8" t="s">
         <v>123</v>
       </c>
@@ -9268,7 +9295,7 @@
       <c r="F32" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
         <v>123</v>
       </c>
@@ -9292,7 +9319,7 @@
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
         <v>28</v>
       </c>
@@ -9316,7 +9343,7 @@
       <c r="F34" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
         <v>28</v>
       </c>
@@ -9340,7 +9367,7 @@
       <c r="F35" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
         <v>28</v>
       </c>
@@ -9364,7 +9391,7 @@
       <c r="F36" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
         <v>28</v>
       </c>
@@ -9388,7 +9415,7 @@
       <c r="F37" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
         <v>28</v>
       </c>
@@ -9412,274 +9439,274 @@
       <c r="F38" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="9"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" ht="84" spans="1:8">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" ht="96" spans="1:8">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="14" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" ht="96" spans="1:8">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="14" t="s">
+      <c r="G41" s="14"/>
+      <c r="H41" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" ht="84" spans="1:8">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="14" t="s">
+      <c r="G42" s="14"/>
+      <c r="H42" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" ht="84" spans="1:8">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="14" t="s">
+      <c r="G43" s="14"/>
+      <c r="H43" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" ht="409.5" spans="1:8">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="14" t="s">
+      <c r="G44" s="14"/>
+      <c r="H44" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" ht="84" spans="1:8">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="14" t="s">
+      <c r="G45" s="14"/>
+      <c r="H45" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" ht="86.25" spans="1:8">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="14" t="s">
+      <c r="G46" s="14"/>
+      <c r="H46" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" ht="84" spans="1:8">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="14" t="s">
+      <c r="G47" s="14"/>
+      <c r="H47" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" ht="132" spans="1:8">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="14" t="s">
+      <c r="G48" s="14"/>
+      <c r="H48" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" ht="132" spans="1:8">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="14" t="s">
+      <c r="G49" s="14"/>
+      <c r="H49" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9702,7 +9729,7 @@
       <c r="F50" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G50" s="9"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="6" t="s">
         <v>66</v>
       </c>
@@ -9726,7 +9753,7 @@
       <c r="F51" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G51" s="9"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="6" t="s">
         <v>66</v>
       </c>
@@ -9776,7 +9803,7 @@
       <c r="F53" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G53" s="9"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="6" t="s">
         <v>197</v>
       </c>
@@ -9800,7 +9827,7 @@
       <c r="F54" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G54" s="9"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="6" t="s">
         <v>197</v>
       </c>
@@ -9824,7 +9851,7 @@
       <c r="F55" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="9"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="6" t="s">
         <v>130</v>
       </c>
@@ -9848,7 +9875,7 @@
       <c r="F56" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G56" s="18"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="6" t="s">
         <v>90</v>
       </c>
@@ -9872,7 +9899,7 @@
       <c r="F57" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G57" s="18"/>
+      <c r="G57" s="14"/>
       <c r="H57" s="6" t="s">
         <v>123</v>
       </c>
@@ -9896,7 +9923,7 @@
       <c r="F58" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G58" s="18"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="6" t="s">
         <v>28</v>
       </c>
@@ -9920,7 +9947,7 @@
       <c r="F59" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G59" s="18"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="6" t="s">
         <v>28</v>
       </c>
@@ -9970,346 +9997,346 @@
       <c r="F61" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G61" s="19"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" ht="132" spans="1:8">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="63" ht="144" spans="1:8">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="14" t="s">
+      <c r="G63" s="16"/>
+      <c r="H63" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="64" ht="409.5" spans="1:8">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14" t="s">
+      <c r="G64" s="16"/>
+      <c r="H64" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" ht="144" spans="1:8">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14" t="s">
+      <c r="G65" s="16"/>
+      <c r="H65" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="66" ht="132" spans="1:8">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14" t="s">
+      <c r="G66" s="16"/>
+      <c r="H66" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="67" ht="96" spans="1:8">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14" t="s">
+      <c r="G67" s="16"/>
+      <c r="H67" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="68" ht="96" spans="1:8">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14" t="s">
+      <c r="G68" s="16"/>
+      <c r="H68" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="69" ht="96" spans="1:8">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14" t="s">
+      <c r="G69" s="16"/>
+      <c r="H69" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" ht="72" spans="1:8">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14" t="s">
+      <c r="G70" s="16"/>
+      <c r="H70" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="71" ht="72" spans="1:8">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14" t="s">
+      <c r="G71" s="16"/>
+      <c r="H71" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="72" ht="132" spans="1:8">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14" t="s">
+      <c r="G72" s="16"/>
+      <c r="H72" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="73" ht="132" spans="1:8">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14" t="s">
+      <c r="G73" s="16"/>
+      <c r="H73" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="74" ht="120" spans="1:8">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14" t="s">
+      <c r="G74" s="16"/>
+      <c r="H74" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="75" ht="120" spans="1:8">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="G75" s="20"/>
-      <c r="H75" s="14" t="s">
+      <c r="G75" s="16"/>
+      <c r="H75" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10323,7 +10350,7 @@
       <c r="C76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -10349,7 +10376,7 @@
       <c r="C77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -10358,7 +10385,7 @@
       <c r="F77" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G77" s="19"/>
+      <c r="G77" s="1"/>
       <c r="H77" s="6" t="s">
         <v>273</v>
       </c>
@@ -10373,7 +10400,7 @@
       <c r="C78" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -10382,7 +10409,7 @@
       <c r="F78" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G78" s="19"/>
+      <c r="G78" s="1"/>
       <c r="H78" s="6" t="s">
         <v>277</v>
       </c>
@@ -10397,7 +10424,7 @@
       <c r="C79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -10406,7 +10433,7 @@
       <c r="F79" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G79" s="19"/>
+      <c r="G79" s="1"/>
       <c r="H79" s="6" t="s">
         <v>281</v>
       </c>
@@ -10421,7 +10448,7 @@
       <c r="C80" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -10430,7 +10457,7 @@
       <c r="F80" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="G80" s="19"/>
+      <c r="G80" s="1"/>
       <c r="H80" s="6" t="s">
         <v>285</v>
       </c>
@@ -10445,7 +10472,7 @@
       <c r="C81" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -10454,7 +10481,7 @@
       <c r="F81" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="G81" s="19"/>
+      <c r="G81" s="1"/>
       <c r="H81" s="6" t="s">
         <v>28</v>
       </c>
@@ -10469,7 +10496,7 @@
       <c r="C82" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -10478,248 +10505,248 @@
       <c r="F82" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G82" s="19"/>
+      <c r="G82" s="1"/>
       <c r="H82" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="83" ht="108" spans="1:8">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="14" t="s">
+      <c r="G83" s="16"/>
+      <c r="H83" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="84" ht="96" spans="1:8">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14" t="s">
+      <c r="G84" s="16"/>
+      <c r="H84" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="85" ht="96" spans="1:8">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14" t="s">
+      <c r="G85" s="16"/>
+      <c r="H85" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="86" ht="165" spans="1:8">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14" t="s">
+      <c r="G86" s="16"/>
+      <c r="H86" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="87" ht="96" spans="1:8">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14" t="s">
+      <c r="G87" s="16"/>
+      <c r="H87" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="88" ht="108" spans="1:8">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="G88" s="20"/>
-      <c r="H88" s="14" t="s">
+      <c r="G88" s="16"/>
+      <c r="H88" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="89" ht="108" spans="1:8">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14" t="s">
+      <c r="G89" s="16"/>
+      <c r="H89" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90" ht="108" spans="1:8">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F90" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14" t="s">
+      <c r="G90" s="16"/>
+      <c r="H90" s="13" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="91" ht="108" spans="1:8">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E91" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14" t="s">
+      <c r="G91" s="16"/>
+      <c r="H91" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" ht="108" spans="1:8">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14" t="s">
+      <c r="G92" s="16"/>
+      <c r="H92" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -10733,7 +10760,7 @@
       <c r="C93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -10742,7 +10769,7 @@
       <c r="F93" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G93" s="19"/>
+      <c r="G93" s="1"/>
       <c r="H93" s="6" t="s">
         <v>28</v>
       </c>
@@ -10757,7 +10784,7 @@
       <c r="C94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -10766,7 +10793,7 @@
       <c r="F94" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G94" s="19"/>
+      <c r="G94" s="1"/>
       <c r="H94" s="6" t="s">
         <v>66</v>
       </c>
@@ -10781,7 +10808,7 @@
       <c r="C95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -10790,7 +10817,7 @@
       <c r="F95" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G95" s="19"/>
+      <c r="G95" s="1"/>
       <c r="H95" s="6" t="s">
         <v>66</v>
       </c>
@@ -10805,7 +10832,7 @@
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -10814,7 +10841,7 @@
       <c r="F96" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G96" s="19"/>
+      <c r="G96" s="1"/>
       <c r="H96" s="6" t="s">
         <v>66</v>
       </c>
@@ -10829,7 +10856,7 @@
       <c r="C97" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -10838,7 +10865,7 @@
       <c r="F97" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="G97" s="19"/>
+      <c r="G97" s="1"/>
       <c r="H97" s="6" t="s">
         <v>66</v>
       </c>
@@ -10853,7 +10880,7 @@
       <c r="C98" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -10862,7 +10889,7 @@
       <c r="F98" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="G98" s="19"/>
+      <c r="G98" s="1"/>
       <c r="H98" s="6" t="s">
         <v>197</v>
       </c>
@@ -10877,7 +10904,7 @@
       <c r="C99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -10886,7 +10913,7 @@
       <c r="F99" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G99" s="19"/>
+      <c r="G99" s="1"/>
       <c r="H99" s="6" t="s">
         <v>197</v>
       </c>
@@ -10901,7 +10928,7 @@
       <c r="C100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="D100" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -10910,7 +10937,7 @@
       <c r="F100" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G100" s="19"/>
+      <c r="G100" s="1"/>
       <c r="H100" s="6" t="s">
         <v>317</v>
       </c>
@@ -10925,7 +10952,7 @@
       <c r="C101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D101" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -10934,7 +10961,7 @@
       <c r="F101" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="G101" s="19"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="6" t="s">
         <v>90</v>
       </c>
@@ -10949,7 +10976,7 @@
       <c r="C102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D102" s="17" t="s">
         <v>326</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -10958,22 +10985,22 @@
       <c r="F102" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="G102" s="19"/>
+      <c r="G102" s="1"/>
       <c r="H102" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="103" ht="120" spans="1:8">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="19" t="s">
         <v>346</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="17" t="s">
         <v>347</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -10982,7 +11009,7 @@
       <c r="F103" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G103" s="19"/>
+      <c r="G103" s="1"/>
       <c r="H103" s="6" t="s">
         <v>349</v>
       </c>

--- a/data/动态库存测试用例.xlsx
+++ b/data/动态库存测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="352">
   <si>
     <t>case_id</t>
   </si>
@@ -44,49 +44,70 @@
     <t>001</t>
   </si>
   <si>
-    <t>动态库存一期-登录</t>
+    <t>登录</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/authentication/signIn</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json"}</t>
+    <t>/usercenter-service/login</t>
   </si>
   <si>
     <t>{
-  "clientId": "client",
-  "password": "Mima123!",
-  "redirectUrl": "string",
-  "route": "string",
-  "username": "MLB2-TEST01"
+  "clientId": "home",
+  "password": "WEBex123",
+  "username": "INNOLUX"
 }</t>
   </si>
   <si>
-    <t>{"verificationCode":"$..verificationCode"}</t>
-  </si>
-  <si>
-    <t>[['Equal','${verificationCode}','$..verificationCode'],['Equal',"True",'$..success']]</t>
+    <t>{"verificationCode":"$..verificationCode","token":"$..token"}</t>
   </si>
   <si>
     <t>002</t>
   </si>
   <si>
-    <t>动态库存一期-获取token</t>
+    <t>identities_登录用户身份信息列表</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>/authentication/getToken/${verificationCode}</t>
+    <t>/usercenter-service/identities</t>
+  </si>
+  <si>
+    <t>{
+  "clientId": "home",
+  "Authorization": "Bearer "+"${token}"
+}</t>
+  </si>
+  <si>
+    <t>{"identityId":"$..identityId"}</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>获取IM账号userId</t>
+  </si>
+  <si>
+    <t>/usercenter-service/authentication/login-as/${identityId}</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>获取token</t>
+  </si>
+  <si>
+    <t>/usercenter-service/authentication/oauth/token</t>
+  </si>
+  <si>
+    <t>{
+  "code": "${verificationCode}"
+}</t>
   </si>
   <si>
     <t>{"token":"$..data"}</t>
-  </si>
-  <si>
-    <t>[['Equal',"True",'$..success']]</t>
   </si>
   <si>
     <r>
@@ -142,7 +163,7 @@
     <t>{
  "advancedQueryCriteria": {
  }, 
-  "keyword":"102S0186",
+  "keyword":" ",
  "pagingCondition": {
   "pageIndex": 1,
   "pageSize": 10
@@ -155,7 +176,7 @@
   </si>
   <si>
     <t>{
-"part_id":"$..id",
+"part_id":"$..results[*]..id",
 "partNo":"$..partNo",
 "mgtMode":"$..mgtMode",
 "warehouseName":"$..warehouseName"
@@ -316,82 +337,6 @@
     <t>[
 ['Equal',"True",'$..success'],
 ['In',"${#partNo}",'$..partNo']
-]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库存列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_004</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库存列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>partNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不区分大小写</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">{
- "keywords":"102s0186",
- "pagingCondition": {
-  "pageIndex": 1,
-  "pageSize": 10
- }
-}
-</t>
-  </si>
-  <si>
-    <t>[
-['Equal',"True",'$..success'],
-['In',"117S0002",'$..partNo']
 ]</t>
   </si>
   <si>
@@ -7367,9 +7312,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7382,15 +7366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7410,6 +7388,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -7418,23 +7417,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7448,48 +7433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7503,9 +7448,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7526,25 +7471,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7556,25 +7513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7592,19 +7543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7616,19 +7555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7640,13 +7579,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7658,55 +7639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7735,35 +7680,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7798,13 +7719,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7827,6 +7752,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -7840,10 +7785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7852,133 +7797,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8403,13 +8348,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
@@ -8446,7 +8391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="135" spans="1:8">
+    <row r="2" ht="81" spans="1:7">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -8459,43 +8404,75 @@
       <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="21" t="s">
+    </row>
+    <row r="3" ht="67.5" spans="1:7">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" ht="135" spans="1:8">
-      <c r="A3" s="20" t="s">
+    <row r="4" ht="67.5" spans="1:7">
+      <c r="A4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:7">
+      <c r="A5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
+      <c r="F5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -8508,10 +8485,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8554,2464 +8531,2440 @@
     </row>
     <row r="2" ht="180" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="96" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="96" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="96" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="96" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="96" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="96" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="9" ht="96" spans="1:8">
+    <row r="9" ht="144" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="144" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" ht="144" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="12" ht="144" spans="1:8">
+    <row r="12" ht="286.5" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" ht="286.5" spans="1:8">
+    <row r="13" ht="156" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="156" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="15" ht="156" spans="1:8">
+    <row r="15" ht="168" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="168" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="17" ht="168" spans="1:8">
+    <row r="17" ht="156" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="156" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" ht="156" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="8" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="20" ht="156" spans="1:8">
+    <row r="20" ht="240" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="21" ht="240" spans="1:8">
+    <row r="21" ht="204" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="22" ht="204" spans="1:8">
+    <row r="22" ht="192" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="23" ht="192" spans="1:8">
+    <row r="23" ht="216" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="24" ht="216" spans="1:8">
+    <row r="24" ht="349.5" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="25" ht="349.5" spans="1:8">
+    <row r="25" ht="180" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="180" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="H26" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="180" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>116</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="28" ht="180" spans="1:8">
+    <row r="28" ht="96" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" ht="96" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="30" ht="96" spans="1:8">
+    <row r="30" ht="132" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="31" ht="132" spans="1:8">
+    <row r="31" ht="84" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="32" ht="84" spans="1:8">
+    <row r="32" ht="144" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="144" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="144" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="144" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="144" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="144" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="38" ht="144" spans="1:8">
-      <c r="A38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="3" t="s">
+    <row r="38" ht="84" spans="1:8">
+      <c r="A38" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8" t="s">
-        <v>28</v>
+      <c r="D38" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="39" ht="84" spans="1:8">
+    <row r="39" ht="96" spans="1:8">
       <c r="A39" s="9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>156</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G39" s="14"/>
       <c r="H39" s="13" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="96" spans="1:8">
       <c r="A40" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="41" ht="96" spans="1:8">
+    <row r="41" ht="84" spans="1:8">
       <c r="A41" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="84" spans="1:8">
       <c r="A42" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="43" ht="84" spans="1:8">
+    <row r="43" ht="409.5" spans="1:8">
       <c r="A43" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="44" ht="409.5" spans="1:8">
+    <row r="44" ht="84" spans="1:8">
       <c r="A44" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="45" ht="84" spans="1:8">
+    <row r="45" ht="86.25" spans="1:8">
       <c r="A45" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="46" ht="86.25" spans="1:8">
+    <row r="46" ht="84" spans="1:8">
       <c r="A46" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="47" ht="84" spans="1:8">
+    <row r="47" ht="132" spans="1:8">
       <c r="A47" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>154</v>
+      <c r="D47" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="132" spans="1:8">
       <c r="A48" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="49" ht="132" spans="1:8">
-      <c r="A49" s="9" t="s">
+    <row r="49" ht="184.5" spans="1:8">
+      <c r="A49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="13" t="s">
-        <v>28</v>
+      <c r="E49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="50" ht="184.5" spans="1:8">
+    <row r="50" ht="144" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="51" ht="144" spans="1:8">
+    <row r="51" ht="132" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G51" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="H51" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" ht="132" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="6" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" ht="132" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" ht="132" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="6" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" ht="132" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G55" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="G55" s="14"/>
       <c r="H55" s="6" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="56" ht="132" spans="1:8">
+    <row r="56" ht="144" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="6" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" ht="144" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="6" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="58" ht="144" spans="1:8">
+    <row r="58" ht="132" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="132" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G59" s="14"/>
+        <v>220</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="H59" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="60" ht="132" spans="1:8">
+    <row r="60" ht="120" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>219</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="61" ht="120" spans="1:8">
-      <c r="A61" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="3" t="s">
+    <row r="61" ht="132" spans="1:8">
+      <c r="A61" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="6" t="s">
-        <v>28</v>
+      <c r="D61" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="62" ht="132" spans="1:8">
+    <row r="62" ht="144" spans="1:8">
       <c r="A62" s="9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>226</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G62" s="16"/>
       <c r="H62" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="63" ht="144" spans="1:8">
+    <row r="63" ht="409.5" spans="1:8">
       <c r="A63" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="13" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="64" ht="409.5" spans="1:8">
+    <row r="64" ht="144" spans="1:8">
       <c r="A64" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="65" ht="144" spans="1:8">
+    <row r="65" ht="132" spans="1:8">
       <c r="A65" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="66" ht="132" spans="1:8">
+    <row r="66" ht="96" spans="1:8">
       <c r="A66" s="9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="13" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" ht="96" spans="1:8">
       <c r="A67" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="96" spans="1:8">
       <c r="A68" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="13" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="69" ht="96" spans="1:8">
+    <row r="69" ht="72" spans="1:8">
       <c r="A69" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="13" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" ht="72" spans="1:8">
       <c r="A70" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="71" ht="72" spans="1:8">
+    <row r="71" ht="132" spans="1:8">
       <c r="A71" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="13" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="132" spans="1:8">
       <c r="A72" s="9" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="73" ht="132" spans="1:8">
+    <row r="73" ht="120" spans="1:8">
       <c r="A73" s="9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G73" s="16"/>
       <c r="H73" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="120" spans="1:8">
       <c r="A74" s="9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="75" ht="120" spans="1:8">
-      <c r="A75" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="13" t="s">
-        <v>28</v>
+    <row r="75" ht="105" spans="1:8">
+      <c r="A75" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="76" ht="105" spans="1:8">
+    <row r="76" ht="60" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G76" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" ht="48" spans="1:8">
+      <c r="A77" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" ht="60" spans="1:8">
-      <c r="A77" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>267</v>
-      </c>
       <c r="E77" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" ht="48" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" ht="48" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="80" ht="48" spans="1:8">
+    <row r="80" ht="38.25" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="6" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="81" ht="38.25" spans="1:8">
+    <row r="81" ht="135.75" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="82" ht="135.75" spans="1:8">
-      <c r="A82" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="6" t="s">
-        <v>28</v>
+    <row r="82" ht="108" spans="1:8">
+      <c r="A82" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="83" ht="108" spans="1:8">
+    <row r="83" ht="96" spans="1:8">
       <c r="A83" s="9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G83" s="16"/>
       <c r="H83" s="13" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" ht="96" spans="1:8">
       <c r="A84" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G84" s="16"/>
       <c r="H84" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="85" ht="96" spans="1:8">
+    <row r="85" ht="165" spans="1:8">
       <c r="A85" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="86" ht="165" spans="1:8">
+    <row r="86" ht="96" spans="1:8">
       <c r="A86" s="9" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="87" ht="96" spans="1:8">
+    <row r="87" ht="108" spans="1:8">
       <c r="A87" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="13" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" ht="108" spans="1:8">
       <c r="A88" s="9" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" ht="108" spans="1:8">
       <c r="A89" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="13" t="s">
-        <v>197</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" ht="108" spans="1:8">
       <c r="A90" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="13" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" ht="108" spans="1:8">
       <c r="A91" s="9" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" ht="108" spans="1:8">
-      <c r="A92" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="A92" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="G92" s="16"/>
-      <c r="H92" s="13" t="s">
-        <v>90</v>
+      <c r="D92" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="93" ht="108" spans="1:8">
+    <row r="93" ht="96" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="6" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" ht="96" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="95" ht="96" spans="1:8">
+    <row r="95" ht="165" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="96" ht="165" spans="1:8">
+    <row r="96" ht="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="97" ht="96" spans="1:8">
+    <row r="97" ht="108" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="6" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" ht="108" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" ht="108" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="6" t="s">
-        <v>197</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" ht="108" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="6" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" ht="108" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="102" ht="108" spans="1:8">
-      <c r="A102" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>344</v>
+    <row r="102" ht="120" spans="1:8">
+      <c r="A102" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" ht="120" spans="1:8">
-      <c r="A103" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -11051,7 +11004,7 @@
     <hyperlink ref="D35" r:id="rId1" display="/inventory/paging-search-inventories"/>
     <hyperlink ref="D36" r:id="rId1" display="/inventory/paging-search-inventories"/>
     <hyperlink ref="D37" r:id="rId1" display="/inventory/paging-search-inventories"/>
-    <hyperlink ref="D38" r:id="rId1" display="/inventory/paging-search-inventories"/>
+    <hyperlink ref="D38" r:id="rId1" display="/inventory/material/${part_id}/warehouse-in-stocks"/>
     <hyperlink ref="D39" r:id="rId1" display="/inventory/material/${part_id}/warehouse-in-stocks"/>
     <hyperlink ref="D40" r:id="rId1" display="/inventory/material/${part_id}/warehouse-in-stocks"/>
     <hyperlink ref="D41" r:id="rId1" display="/inventory/material/${part_id}/warehouse-in-stocks"/>
@@ -11060,7 +11013,7 @@
     <hyperlink ref="D44" r:id="rId1" display="/inventory/material/${part_id}/warehouse-in-stocks"/>
     <hyperlink ref="D45" r:id="rId1" display="/inventory/material/${part_id}/warehouse-in-stocks"/>
     <hyperlink ref="D46" r:id="rId1" display="/inventory/material/${part_id}/warehouse-in-stocks"/>
-    <hyperlink ref="D47" r:id="rId1" display="/inventory/material/${part_id}/warehouse-in-stocks"/>
+    <hyperlink ref="D48" r:id="rId1" display="/inventory/material/${part_id}/warehouse-inbound"/>
     <hyperlink ref="D49" r:id="rId1" display="/inventory/material/${part_id}/warehouse-inbound"/>
     <hyperlink ref="D50" r:id="rId1" display="/inventory/material/${part_id}/warehouse-inbound"/>
     <hyperlink ref="D51" r:id="rId1" display="/inventory/material/${part_id}/warehouse-inbound"/>
@@ -11073,7 +11026,7 @@
     <hyperlink ref="D58" r:id="rId1" display="/inventory/material/${part_id}/warehouse-inbound"/>
     <hyperlink ref="D59" r:id="rId1" display="/inventory/material/${part_id}/warehouse-inbound"/>
     <hyperlink ref="D60" r:id="rId1" display="/inventory/material/${part_id}/warehouse-inbound"/>
-    <hyperlink ref="D61" r:id="rId1" display="/inventory/material/${part_id}/warehouse-inbound"/>
+    <hyperlink ref="D61" r:id="rId1" display="/inventory/material/${part_id}/warehouse-outbound"/>
     <hyperlink ref="D62" r:id="rId1" display="/inventory/material/${part_id}/warehouse-outbound"/>
     <hyperlink ref="D63" r:id="rId1" display="/inventory/material/${part_id}/warehouse-outbound"/>
     <hyperlink ref="D64" r:id="rId1" display="/inventory/material/${part_id}/warehouse-outbound"/>
@@ -11087,14 +11040,14 @@
     <hyperlink ref="D72" r:id="rId1" display="/inventory/material/${part_id}/warehouse-outbound"/>
     <hyperlink ref="D73" r:id="rId1" display="/inventory/material/${part_id}/warehouse-outbound"/>
     <hyperlink ref="D74" r:id="rId1" display="/inventory/material/${part_id}/warehouse-outbound"/>
-    <hyperlink ref="D75" r:id="rId1" display="/inventory/material/${part_id}/warehouse-outbound"/>
+    <hyperlink ref="D75" r:id="rId1" display="/inventory/material/${part_id}/map-and-basic"/>
     <hyperlink ref="D76" r:id="rId1" display="/inventory/material/${part_id}/map-and-basic"/>
     <hyperlink ref="D77" r:id="rId1" display="/inventory/material/${part_id}/map-and-basic"/>
     <hyperlink ref="D78" r:id="rId1" display="/inventory/material/${part_id}/map-and-basic"/>
     <hyperlink ref="D79" r:id="rId1" display="/inventory/material/${part_id}/map-and-basic"/>
     <hyperlink ref="D80" r:id="rId1" display="/inventory/material/${part_id}/map-and-basic"/>
     <hyperlink ref="D81" r:id="rId1" display="/inventory/material/${part_id}/map-and-basic"/>
-    <hyperlink ref="D82" r:id="rId1" display="/inventory/material/${part_id}/map-and-basic"/>
+    <hyperlink ref="D83" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
     <hyperlink ref="D84" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
     <hyperlink ref="D85" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
     <hyperlink ref="D86" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
@@ -11103,7 +11056,7 @@
     <hyperlink ref="D89" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
     <hyperlink ref="D90" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
     <hyperlink ref="D91" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
-    <hyperlink ref="D92" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
+    <hyperlink ref="D92" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
     <hyperlink ref="D93" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
     <hyperlink ref="D94" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
     <hyperlink ref="D95" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
@@ -11112,10 +11065,9 @@
     <hyperlink ref="D98" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
     <hyperlink ref="D99" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
     <hyperlink ref="D100" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
+    <hyperlink ref="D82" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
     <hyperlink ref="D101" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
-    <hyperlink ref="D83" r:id="rId1" display="/inventory/warehouse-situation/paging-query-inbound"/>
-    <hyperlink ref="D102" r:id="rId1" display="/inventory/warehouse-situation/paging-query-outbound"/>
-    <hyperlink ref="D103" r:id="rId1" display="/inventory/export-inventory-list"/>
+    <hyperlink ref="D102" r:id="rId1" display="/inventory/export-inventory-list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
